--- a/biology/Zoologie/Aleochara/Aleochara.xlsx
+++ b/biology/Zoologie/Aleochara/Aleochara.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aleochara est un genre de Coléoptères prédateurs de la famille des Staphylinidés ayant principalement pour proies les Diptères sur les arbres fruitiers, la vigne, les grandes cultures, les cultures légumières et les cultures ornementales.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces et des sous-genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                  (1 septembre 2014)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                  (1 septembre 2014) :
 Aleochara angusticeps
 Aleochara arizonica
 Aleochara ashei
@@ -570,7 +584,7 @@
 Aleochara verna
 Aleochara villosa
 Aleochara wickhami
-Selon ITIS      (1 septembre 2014)[2] :
+Selon ITIS      (1 septembre 2014) :
 sous-genre Aleochara (Aleochara) Mulsant &amp; Rey, 1874
 sous-genre Aleochara (Calochara) Casey, 1906
 sous-genre Aleochara (Coprochara) Mulsant &amp; Rey, 1874
@@ -578,7 +592,7 @@
 sous-genre Aleochara (Emplenota) Casey, 1884
 sous-genre Aleochara (Maseochara) Sharp, 1883
 sous-genre Aleochara (Xenochara) Mulsant &amp; Rey, 1874
-Selon NCBI  (1 septembre 2014)[3] :
+Selon NCBI  (1 septembre 2014) :
 Aleochara bilineata
 Aleochara bimaculata
 Aleochara binotata
